--- a/sql/公式1.xlsx
+++ b/sql/公式1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\workbackup\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6700,7 +6700,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6989,7 +6989,7 @@
   <dimension ref="CQ1:CZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CJ1" workbookViewId="0">
-      <selection activeCell="CX2" sqref="CX2"/>
+      <selection activeCell="CR2" sqref="CR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
